--- a/ISO 965-2-98 Fine.xlsx
+++ b/ISO 965-2-98 Fine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\My Work\Standards database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Streamlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -688,16 +688,16 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21" style="12" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ISO 965-2-98 Fine.xlsx
+++ b/ISO 965-2-98 Fine.xlsx
@@ -29,22 +29,6 @@
     <t>Thread</t>
   </si>
   <si>
-    <t xml:space="preserve">Major diameter (Max)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major diameter (Min)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch diameter (Max)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch diameter (Min)
-</t>
-  </si>
-  <si>
     <t>Root radius (Min)</t>
   </si>
   <si>
@@ -190,6 +174,22 @@
   </si>
   <si>
     <t>M64  x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Diameter (Min)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Diameter (Max)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitch Diameter (Max)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitch Diameter (Min)
+</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,29 +701,29 @@
     <col min="6" max="6" width="15.5546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>7.9740000000000002</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8">
         <v>9.9740000000000002</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="10">
         <v>9.9719999999999995</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6">
         <v>11.972</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>11.968</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="10">
         <v>13.968</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6">
         <v>15.968</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8">
         <v>17.968</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10">
         <v>17.962</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6">
         <v>19.968</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8">
         <v>19.962</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" s="10">
         <v>21.968</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6">
         <v>21.962</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8">
         <v>23.962</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="10">
         <v>26.962</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6">
         <v>29.962</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8">
         <v>32.962000000000003</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" s="10">
         <v>35.951999999999998</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6">
         <v>38.951999999999998</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8">
         <v>41.951999999999998</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="10">
         <v>44.951999999999998</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6">
         <v>47.951999999999998</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" s="10">
         <v>55.94</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6">
         <v>59.94</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26" s="10">
         <v>63.94</v>

--- a/ISO 965-2-98 Fine.xlsx
+++ b/ISO 965-2-98 Fine.xlsx
@@ -38,24 +38,6 @@
     <t>M10  x1</t>
   </si>
   <si>
-    <t>M10  x1,25</t>
-  </si>
-  <si>
-    <t>M12  x 1,25</t>
-  </si>
-  <si>
-    <t>M12  x 1,5</t>
-  </si>
-  <si>
-    <t>M14  x 1,5</t>
-  </si>
-  <si>
-    <t>M16  x 1,5</t>
-  </si>
-  <si>
-    <t>M18  x 1,5</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">M18  </t>
     </r>
@@ -80,13 +62,7 @@
     </r>
   </si>
   <si>
-    <t>M20  x 1,5</t>
-  </si>
-  <si>
     <t>M20  x  2</t>
-  </si>
-  <si>
-    <t>M22  x 1,5</t>
   </si>
   <si>
     <t>M22  x  2</t>
@@ -190,6 +166,30 @@
   <si>
     <t xml:space="preserve">Pitch Diameter (Min)
 </t>
+  </si>
+  <si>
+    <t>M10  x1.25</t>
+  </si>
+  <si>
+    <t>M12  x 1.25</t>
+  </si>
+  <si>
+    <t>M12  x 1.5</t>
+  </si>
+  <si>
+    <t>M14  x 1.5</t>
+  </si>
+  <si>
+    <t>M16  x 1.5</t>
+  </si>
+  <si>
+    <t>M18  x 1.5</t>
+  </si>
+  <si>
+    <t>M22  x 1.5</t>
+  </si>
+  <si>
+    <t>M20  x 1.5</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -761,9 +761,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10">
         <v>9.9719999999999995</v>
@@ -781,9 +781,9 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6">
         <v>11.972</v>
@@ -801,9 +801,9 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6" s="8">
         <v>11.968</v>
@@ -821,9 +821,9 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10">
         <v>13.968</v>
@@ -841,9 +841,9 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6">
         <v>15.968</v>
@@ -861,9 +861,9 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8">
         <v>17.968</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="10">
         <v>17.962</v>
@@ -901,9 +901,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6">
         <v>19.968</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B12" s="8">
         <v>19.962</v>
@@ -941,9 +941,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B13" s="10">
         <v>21.968</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6">
         <v>21.962</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15" s="8">
         <v>23.962</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B16" s="10">
         <v>26.962</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B17" s="6">
         <v>29.962</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8">
         <v>32.962000000000003</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B19" s="10">
         <v>35.951999999999998</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6">
         <v>38.951999999999998</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B21" s="8">
         <v>41.951999999999998</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B22" s="10">
         <v>44.951999999999998</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6">
         <v>47.951999999999998</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B24" s="10">
         <v>55.94</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B25" s="6">
         <v>59.94</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B26" s="10">
         <v>63.94</v>
